--- a/MonteCarloResultsBUS2.xlsx
+++ b/MonteCarloResultsBUS2.xlsx
@@ -567,28 +567,28 @@
         <v>210</v>
       </c>
       <c r="F2">
-        <v>-0.7583027522996576</v>
+        <v>0.6982785715113177</v>
       </c>
       <c r="G2">
-        <v>160</v>
+        <v>559</v>
       </c>
       <c r="H2">
-        <v>2.819938360114352</v>
+        <v>2.997975977866123</v>
       </c>
       <c r="I2">
-        <v>-0.2689075630252101</v>
+        <v>0.2329166666666667</v>
       </c>
       <c r="J2">
-        <v>-56.47058823529412</v>
+        <v>48.9125</v>
       </c>
       <c r="K2">
-        <v>-159.2435779829281</v>
+        <v>146.6385000173767</v>
       </c>
       <c r="L2">
-        <v>592.1870556240139</v>
+        <v>629.5749553518857</v>
       </c>
       <c r="M2">
-        <v>-0.4056919724803169</v>
+        <v>0.373579035758555</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -608,28 +608,28 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>-0.8302315331085885</v>
+        <v>0.8324402003363215</v>
       </c>
       <c r="G3">
-        <v>167</v>
+        <v>595</v>
       </c>
       <c r="H3">
-        <v>2.958010552093474</v>
+        <v>3.357741984549868</v>
       </c>
       <c r="I3">
-        <v>-0.280672268907563</v>
+        <v>0.2479166666666667</v>
       </c>
       <c r="J3">
-        <v>-58.94117647058824</v>
+        <v>52.0625</v>
       </c>
       <c r="K3">
-        <v>-174.3486219528036</v>
+        <v>174.8124420706275</v>
       </c>
       <c r="L3">
-        <v>621.1822159396296</v>
+        <v>705.1258167554723</v>
       </c>
       <c r="M3">
-        <v>-0.4441738702130949</v>
+        <v>0.445355507179932</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -649,28 +649,28 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>-0.751368202577077</v>
+        <v>0.8170675520985249</v>
       </c>
       <c r="G4">
-        <v>166</v>
+        <v>600</v>
       </c>
       <c r="H4">
-        <v>2.693157111646752</v>
+        <v>3.2682702083941</v>
       </c>
       <c r="I4">
-        <v>-0.2789915966386555</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <v>-58.58823529411765</v>
+        <v>52.5</v>
       </c>
       <c r="K4">
-        <v>-157.7873225411862</v>
+        <v>171.5841859406902</v>
       </c>
       <c r="L4">
-        <v>565.5629934458179</v>
+        <v>686.3367437627609</v>
       </c>
       <c r="M4">
-        <v>-0.4019819883787362</v>
+        <v>0.4371311403727108</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -690,28 +690,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.7100222950741094</v>
+        <v>0.683897307059412</v>
       </c>
       <c r="G5">
-        <v>160</v>
+        <v>568</v>
       </c>
       <c r="H5">
-        <v>2.640395409806844</v>
+        <v>2.889706931236952</v>
       </c>
       <c r="I5">
-        <v>-0.2689075630252101</v>
+        <v>0.2366666666666667</v>
       </c>
       <c r="J5">
-        <v>-0.2689075630252101</v>
+        <v>0.2366666666666667</v>
       </c>
       <c r="K5">
-        <v>-0.7100222950741094</v>
+        <v>0.683897307059412</v>
       </c>
       <c r="L5">
-        <v>2.640395409806844</v>
+        <v>2.889706931236952</v>
       </c>
       <c r="M5">
-        <v>-0.4018726190119459</v>
+        <v>0.3870858757956271</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -731,28 +731,28 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>-0.574885989239952</v>
+        <v>0.647305183425587</v>
       </c>
       <c r="G6">
-        <v>156</v>
+        <v>574</v>
       </c>
       <c r="H6">
-        <v>2.19267412562674</v>
+        <v>2.706502509096531</v>
       </c>
       <c r="I6">
-        <v>-0.2621848739495798</v>
+        <v>0.2391666666666667</v>
       </c>
       <c r="J6">
-        <v>-0.2621848739495798</v>
+        <v>0.2391666666666667</v>
       </c>
       <c r="K6">
-        <v>-0.574885989239952</v>
+        <v>0.647305183425587</v>
       </c>
       <c r="L6">
-        <v>2.19267412562674</v>
+        <v>2.706502509096531</v>
       </c>
       <c r="M6">
-        <v>-0.3253854699098128</v>
+        <v>0.3663747338188822</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -772,28 +772,28 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>-0.7141626479789385</v>
+        <v>0.7491745472435604</v>
       </c>
       <c r="G7">
-        <v>162</v>
+        <v>575</v>
       </c>
       <c r="H7">
-        <v>2.623004787330052</v>
+        <v>3.126989414581817</v>
       </c>
       <c r="I7">
-        <v>-0.2722689075630252</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="J7">
-        <v>-2.722689075630252</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="K7">
-        <v>-7.141626479789385</v>
+        <v>7.491745472435603</v>
       </c>
       <c r="L7">
-        <v>26.23004787330052</v>
+        <v>31.26989414581817</v>
       </c>
       <c r="M7">
-        <v>-0.3242298421824381</v>
+        <v>0.3401252444485764</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -813,28 +813,28 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>-0.6577695623585461</v>
+        <v>0.7776754605369876</v>
       </c>
       <c r="G8">
-        <v>159</v>
+        <v>579</v>
       </c>
       <c r="H8">
-        <v>2.461464714486383</v>
+        <v>3.223525225023783</v>
       </c>
       <c r="I8">
-        <v>-0.2672268907563025</v>
+        <v>0.24125</v>
       </c>
       <c r="J8">
-        <v>-2.672268907563025</v>
+        <v>2.4125</v>
       </c>
       <c r="K8">
-        <v>-6.577695623585461</v>
+        <v>7.776754605369876</v>
       </c>
       <c r="L8">
-        <v>24.61464714486383</v>
+        <v>32.23525225023783</v>
       </c>
       <c r="M8">
-        <v>-0.2986273813107799</v>
+        <v>0.3530646590837924</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -854,28 +854,28 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>-0.6695849607727848</v>
+        <v>0.5751684780750712</v>
       </c>
       <c r="G9">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="H9">
-        <v>3.347924803863924</v>
+        <v>3.137282607682207</v>
       </c>
       <c r="I9">
-        <v>-0.2</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="J9">
-        <v>-0.2</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="K9">
-        <v>-0.6695849607727848</v>
+        <v>0.5751684780750712</v>
       </c>
       <c r="L9">
-        <v>3.347924803863924</v>
+        <v>3.137282607682207</v>
       </c>
       <c r="M9">
-        <v>-0.6695849607727848</v>
+        <v>0.5751684780750712</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -895,28 +895,28 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>-0.5452228392522634</v>
+        <v>0.5197765193673796</v>
       </c>
       <c r="G10">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="H10">
-        <v>2.726114196261317</v>
+        <v>2.835144651094798</v>
       </c>
       <c r="I10">
-        <v>-0.2</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="J10">
-        <v>-0.2</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="K10">
-        <v>-0.5452228392522634</v>
+        <v>0.5197765193673796</v>
       </c>
       <c r="L10">
-        <v>2.726114196261317</v>
+        <v>2.835144651094798</v>
       </c>
       <c r="M10">
-        <v>-0.6270062651401029</v>
+        <v>0.5977429972724865</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -936,28 +936,28 @@
         <v>210</v>
       </c>
       <c r="F11">
-        <v>-0.526751320128117</v>
+        <v>0.6871744120077219</v>
       </c>
       <c r="G11">
-        <v>120</v>
+        <v>575</v>
       </c>
       <c r="H11">
-        <v>2.61180862896858</v>
+        <v>2.868206241423535</v>
       </c>
       <c r="I11">
-        <v>-0.2016806722689076</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="J11">
-        <v>-42.35294117647059</v>
+        <v>50.3125</v>
       </c>
       <c r="K11">
-        <v>-110.6177772269046</v>
+        <v>144.3066265216216</v>
       </c>
       <c r="L11">
-        <v>548.4798120834017</v>
+        <v>602.3233106989424</v>
       </c>
       <c r="M11">
-        <v>-0.2818119562685426</v>
+        <v>0.3676383104241313</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -977,28 +977,28 @@
         <v>210</v>
       </c>
       <c r="F12">
-        <v>-0.6032756521363998</v>
+        <v>0.8207511973049286</v>
       </c>
       <c r="G12">
-        <v>124</v>
+        <v>627</v>
       </c>
       <c r="H12">
-        <v>2.894750105009337</v>
+        <v>3.141631377243746</v>
       </c>
       <c r="I12">
-        <v>-0.2084033613445378</v>
+        <v>0.26125</v>
       </c>
       <c r="J12">
-        <v>-43.76470588235294</v>
+        <v>54.8625</v>
       </c>
       <c r="K12">
-        <v>-126.6878869486439</v>
+        <v>172.357751434035</v>
       </c>
       <c r="L12">
-        <v>607.8975220519609</v>
+        <v>659.7425892211867</v>
       </c>
       <c r="M12">
-        <v>-0.3227524738929739</v>
+        <v>0.4391018905581369</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,28 +1018,28 @@
         <v>200</v>
       </c>
       <c r="F13">
-        <v>-0.7091783210910434</v>
+        <v>0.7273143396070939</v>
       </c>
       <c r="G13">
-        <v>124</v>
+        <v>598</v>
       </c>
       <c r="H13">
-        <v>3.402912105235248</v>
+        <v>2.918987316148872</v>
       </c>
       <c r="I13">
-        <v>-0.2084033613445378</v>
+        <v>0.2491666666666667</v>
       </c>
       <c r="J13">
-        <v>-41.68067226890756</v>
+        <v>49.83333333333334</v>
       </c>
       <c r="K13">
-        <v>-141.8356642182087</v>
+        <v>145.4628679214188</v>
       </c>
       <c r="L13">
-        <v>680.5824210470496</v>
+        <v>583.7974632297744</v>
       </c>
       <c r="M13">
-        <v>-0.3191302444909696</v>
+        <v>0.3272914528231923</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1059,28 +1059,28 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>-0.648829191396293</v>
+        <v>0.7067054213452056</v>
       </c>
       <c r="G14">
-        <v>135</v>
+        <v>603</v>
       </c>
       <c r="H14">
-        <v>2.85965458430218</v>
+        <v>2.812757895901316</v>
       </c>
       <c r="I14">
-        <v>-0.226890756302521</v>
+        <v>0.25125</v>
       </c>
       <c r="J14">
-        <v>-0.226890756302521</v>
+        <v>0.25125</v>
       </c>
       <c r="K14">
-        <v>-0.648829191396293</v>
+        <v>0.7067054213452056</v>
       </c>
       <c r="L14">
-        <v>2.85965458430218</v>
+        <v>2.812757895901316</v>
       </c>
       <c r="M14">
-        <v>-0.3672373223303018</v>
+        <v>0.3999952684813863</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1100,28 +1100,28 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>-0.8330807854959024</v>
+        <v>0.8085830175314719</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>632</v>
       </c>
       <c r="H15">
-        <v>3.304553782467079</v>
+        <v>3.07056842100559</v>
       </c>
       <c r="I15">
-        <v>-0.2521008403361344</v>
+        <v>0.2633333333333333</v>
       </c>
       <c r="J15">
-        <v>-0.2521008403361344</v>
+        <v>0.2633333333333333</v>
       </c>
       <c r="K15">
-        <v>-0.8330807854959024</v>
+        <v>0.8085830175314719</v>
       </c>
       <c r="L15">
-        <v>3.304553782467079</v>
+        <v>3.07056842100559</v>
       </c>
       <c r="M15">
-        <v>-0.4715237245906807</v>
+        <v>0.457657987922813</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1141,28 +1141,28 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>-0.6799784695935208</v>
+        <v>0.7663384505705467</v>
       </c>
       <c r="G16">
-        <v>124</v>
+        <v>583</v>
       </c>
       <c r="H16">
-        <v>3.262799914581814</v>
+        <v>3.154738046945647</v>
       </c>
       <c r="I16">
-        <v>-0.2084033613445378</v>
+        <v>0.2429166666666667</v>
       </c>
       <c r="J16">
-        <v>-2.084033613445378</v>
+        <v>2.429166666666667</v>
       </c>
       <c r="K16">
-        <v>-6.799784695935208</v>
+        <v>7.663384505705467</v>
       </c>
       <c r="L16">
-        <v>32.62799914581814</v>
+        <v>31.54738046945647</v>
       </c>
       <c r="M16">
-        <v>-0.3087102251954585</v>
+        <v>0.3479176565590282</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1182,28 +1182,28 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>-0.7895551022599907</v>
+        <v>0.8462386951401426</v>
       </c>
       <c r="G17">
-        <v>146</v>
+        <v>632</v>
       </c>
       <c r="H17">
-        <v>3.217707437292428</v>
+        <v>3.213564665089149</v>
       </c>
       <c r="I17">
-        <v>-0.2453781512605042</v>
+        <v>0.2633333333333333</v>
       </c>
       <c r="J17">
-        <v>-2.453781512605042</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="K17">
-        <v>-7.895551022599907</v>
+        <v>8.462386951401426</v>
       </c>
       <c r="L17">
-        <v>32.17707437292428</v>
+        <v>32.13564665089149</v>
       </c>
       <c r="M17">
-        <v>-0.3584580164260358</v>
+        <v>0.3841923675936247</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1223,28 +1223,28 @@
         <v>200</v>
       </c>
       <c r="F18">
-        <v>-0.6443370832820507</v>
+        <v>0.7063576636779041</v>
       </c>
       <c r="G18">
-        <v>138</v>
+        <v>596</v>
       </c>
       <c r="H18">
-        <v>2.77812003299145</v>
+        <v>2.844393276555319</v>
       </c>
       <c r="I18">
-        <v>-0.2319327731092437</v>
+        <v>0.2483333333333333</v>
       </c>
       <c r="J18">
-        <v>-46.38655462184874</v>
+        <v>49.66666666666666</v>
       </c>
       <c r="K18">
-        <v>-128.8674166564101</v>
+        <v>141.2715327355808</v>
       </c>
       <c r="L18">
-        <v>555.6240065982901</v>
+        <v>568.8786553110638</v>
       </c>
       <c r="M18">
-        <v>-0.2899516874769228</v>
+        <v>0.3178609486550569</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1264,28 +1264,28 @@
         <v>200</v>
       </c>
       <c r="F19">
-        <v>-0.7190037959364903</v>
+        <v>0.8405449378218658</v>
       </c>
       <c r="G19">
-        <v>144</v>
+        <v>604</v>
       </c>
       <c r="H19">
-        <v>2.970883740154248</v>
+        <v>3.339913660219334</v>
       </c>
       <c r="I19">
-        <v>-0.2420168067226891</v>
+        <v>0.2516666666666666</v>
       </c>
       <c r="J19">
-        <v>-48.40336134453781</v>
+        <v>50.33333333333333</v>
       </c>
       <c r="K19">
-        <v>-143.8007591872981</v>
+        <v>168.1089875643732</v>
       </c>
       <c r="L19">
-        <v>594.1767480308497</v>
+        <v>667.9827320438669</v>
       </c>
       <c r="M19">
-        <v>-0.3235517081714206</v>
+        <v>0.3782452220198396</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1305,28 +1305,28 @@
         <v>200</v>
       </c>
       <c r="F20">
-        <v>-0.8638810257916473</v>
+        <v>0.7819909654227095</v>
       </c>
       <c r="G20">
-        <v>152</v>
+        <v>624</v>
       </c>
       <c r="H20">
-        <v>3.381639541750198</v>
+        <v>3.007657559318114</v>
       </c>
       <c r="I20">
-        <v>-0.2554621848739496</v>
+        <v>0.26</v>
       </c>
       <c r="J20">
-        <v>-51.09243697478991</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>-172.7762051583294</v>
+        <v>156.3981930845419</v>
       </c>
       <c r="L20">
-        <v>676.3279083500397</v>
+        <v>601.5315118636228</v>
       </c>
       <c r="M20">
-        <v>-0.3887464616062413</v>
+        <v>0.3518959344402193</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,28 +1346,28 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>-0.7515855875120543</v>
+        <v>0.7785671605508074</v>
       </c>
       <c r="G21">
-        <v>142</v>
+        <v>626</v>
       </c>
       <c r="H21">
-        <v>3.149249468800509</v>
+        <v>2.984922021281051</v>
       </c>
       <c r="I21">
-        <v>-0.238655462184874</v>
+        <v>0.2608333333333333</v>
       </c>
       <c r="J21">
-        <v>-0.238655462184874</v>
+        <v>0.2608333333333333</v>
       </c>
       <c r="K21">
-        <v>-0.7515855875120543</v>
+        <v>0.7785671605508074</v>
       </c>
       <c r="L21">
-        <v>3.149249468800509</v>
+        <v>2.984922021281051</v>
       </c>
       <c r="M21">
-        <v>-0.4253974425318227</v>
+        <v>0.440669012871757</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1387,28 +1387,28 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>-0.6505747780528655</v>
+        <v>0.7244287715779379</v>
       </c>
       <c r="G22">
-        <v>141</v>
+        <v>626</v>
       </c>
       <c r="H22">
-        <v>2.74533328327273</v>
+        <v>2.777362702535226</v>
       </c>
       <c r="I22">
-        <v>-0.2369747899159664</v>
+        <v>0.2608333333333333</v>
       </c>
       <c r="J22">
-        <v>-0.2369747899159664</v>
+        <v>0.2608333333333333</v>
       </c>
       <c r="K22">
-        <v>-0.6505747780528655</v>
+        <v>0.7244287715779379</v>
       </c>
       <c r="L22">
-        <v>2.74533328327273</v>
+        <v>2.777362702535226</v>
       </c>
       <c r="M22">
-        <v>-0.3682253243779218</v>
+        <v>0.4100266847131128</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1428,28 +1428,28 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>-0.7350332333335533</v>
+        <v>0.8282292211297172</v>
       </c>
       <c r="G23">
-        <v>135</v>
+        <v>679</v>
       </c>
       <c r="H23">
-        <v>3.23959091728492</v>
+        <v>2.927467055539501</v>
       </c>
       <c r="I23">
-        <v>-0.226890756302521</v>
+        <v>0.2829166666666666</v>
       </c>
       <c r="J23">
-        <v>-2.26890756302521</v>
+        <v>2.829166666666667</v>
       </c>
       <c r="K23">
-        <v>-7.350332333335533</v>
+        <v>8.282292211297172</v>
       </c>
       <c r="L23">
-        <v>32.3959091728492</v>
+        <v>29.27467055539502</v>
       </c>
       <c r="M23">
-        <v>-0.3337050879334332</v>
+        <v>0.3760160663928916</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1466,25 +1466,25 @@
         <v>1908</v>
       </c>
       <c r="J24">
-        <v>-0.2420168067226891</v>
+        <v>0.2489843204053109</v>
       </c>
       <c r="K24">
-        <v>-0.7112756857729322</v>
+        <v>0.7683763537187673</v>
       </c>
       <c r="L24">
-        <v>2.938951618297879</v>
+        <v>3.086043139053738</v>
       </c>
       <c r="M24">
-        <v>-8.457756044692738</v>
+        <v>8.874136475260824</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>2400</v>
       </c>
       <c r="O24">
         <v>0.02</v>
       </c>
       <c r="P24">
-        <v>0.001622449754557294</v>
+        <v>0.01772206268511528</v>
       </c>
     </row>
   </sheetData>

--- a/MonteCarloResultsBUS2.xlsx
+++ b/MonteCarloResultsBUS2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Customer type</t>
   </si>
@@ -61,6 +61,12 @@
     <t>calculated beta</t>
   </si>
   <si>
+    <t>EENS 95% CI</t>
+  </si>
+  <si>
+    <t>EENS 99% CI</t>
+  </si>
+  <si>
     <t>LP1</t>
   </si>
   <si>
@@ -140,6 +146,12 @@
   </si>
   <si>
     <t>small user</t>
+  </si>
+  <si>
+    <t>(8.348241047965246, 9.028317877472574)</t>
+  </si>
+  <si>
+    <t>(8.241371831899809, 9.135187093538011)</t>
   </si>
 </sst>
 </file>
@@ -497,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,13 +561,19 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>0.535</v>
@@ -567,36 +585,36 @@
         <v>210</v>
       </c>
       <c r="F2">
-        <v>0.6982785715113177</v>
+        <v>0.7527309054044505</v>
       </c>
       <c r="G2">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="H2">
-        <v>2.997975977866123</v>
+        <v>3.326181768346234</v>
       </c>
       <c r="I2">
-        <v>0.2329166666666667</v>
+        <v>0.2263048016701461</v>
       </c>
       <c r="J2">
-        <v>48.9125</v>
+        <v>47.52400835073069</v>
       </c>
       <c r="K2">
-        <v>146.6385000173767</v>
+        <v>158.0734901349346</v>
       </c>
       <c r="L2">
-        <v>629.5749553518857</v>
+        <v>698.4981713527092</v>
       </c>
       <c r="M2">
-        <v>0.373579035758555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0.4027110343913811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.535</v>
@@ -608,36 +626,36 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>0.8324402003363215</v>
+        <v>0.8558064083398688</v>
       </c>
       <c r="G3">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="H3">
-        <v>3.357741984549868</v>
+        <v>3.539993692528473</v>
       </c>
       <c r="I3">
-        <v>0.2479166666666667</v>
+        <v>0.2417536534446764</v>
       </c>
       <c r="J3">
-        <v>52.0625</v>
+        <v>50.76826722338205</v>
       </c>
       <c r="K3">
-        <v>174.8124420706275</v>
+        <v>179.7193457513724</v>
       </c>
       <c r="L3">
-        <v>705.1258167554723</v>
+        <v>743.3986754309793</v>
       </c>
       <c r="M3">
-        <v>0.445355507179932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.4578564284618298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0.535</v>
@@ -649,36 +667,36 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>0.8170675520985249</v>
+        <v>0.7887728250392751</v>
       </c>
       <c r="G4">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="H4">
-        <v>3.2682702083941</v>
+        <v>3.314229677138709</v>
       </c>
       <c r="I4">
-        <v>0.25</v>
+        <v>0.2379958246346555</v>
       </c>
       <c r="J4">
-        <v>52.5</v>
+        <v>49.97912317327766</v>
       </c>
       <c r="K4">
-        <v>171.5841859406902</v>
+        <v>165.6422932582478</v>
       </c>
       <c r="L4">
-        <v>686.3367437627609</v>
+        <v>695.9882321991288</v>
       </c>
       <c r="M4">
-        <v>0.4371311403727108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.4219934613960122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>0.5659999999999999</v>
@@ -690,36 +708,36 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.683897307059412</v>
+        <v>0.7233567248659171</v>
       </c>
       <c r="G5">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="H5">
-        <v>2.889706931236952</v>
+        <v>3.138477094300492</v>
       </c>
       <c r="I5">
-        <v>0.2366666666666667</v>
+        <v>0.2304801670146138</v>
       </c>
       <c r="J5">
-        <v>0.2366666666666667</v>
+        <v>0.2304801670146138</v>
       </c>
       <c r="K5">
-        <v>0.683897307059412</v>
+        <v>0.7233567248659171</v>
       </c>
       <c r="L5">
-        <v>2.889706931236952</v>
+        <v>3.138477094300492</v>
       </c>
       <c r="M5">
-        <v>0.3870858757956271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.409419906274109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>0.5659999999999999</v>
@@ -731,36 +749,36 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.647305183425587</v>
+        <v>0.7422027325307978</v>
       </c>
       <c r="G6">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="H6">
-        <v>2.706502509096531</v>
+        <v>3.179920473007622</v>
       </c>
       <c r="I6">
-        <v>0.2391666666666667</v>
+        <v>0.2334029227557411</v>
       </c>
       <c r="J6">
-        <v>0.2391666666666667</v>
+        <v>0.2334029227557411</v>
       </c>
       <c r="K6">
-        <v>0.647305183425587</v>
+        <v>0.7422027325307978</v>
       </c>
       <c r="L6">
-        <v>2.706502509096531</v>
+        <v>3.179920473007622</v>
       </c>
       <c r="M6">
-        <v>0.3663747338188822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.4200867466124315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>0.454</v>
@@ -772,36 +790,36 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>0.7491745472435604</v>
+        <v>0.752536013643472</v>
       </c>
       <c r="G7">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H7">
-        <v>3.126989414581817</v>
+        <v>3.145416671337025</v>
       </c>
       <c r="I7">
-        <v>0.2395833333333333</v>
+        <v>0.2392484342379958</v>
       </c>
       <c r="J7">
-        <v>2.395833333333333</v>
+        <v>2.392484342379958</v>
       </c>
       <c r="K7">
-        <v>7.491745472435603</v>
+        <v>7.52536013643472</v>
       </c>
       <c r="L7">
-        <v>31.26989414581817</v>
+        <v>31.45416671337025</v>
       </c>
       <c r="M7">
-        <v>0.3401252444485764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.3416513501941363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>0.454</v>
@@ -813,36 +831,36 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>0.7776754605369876</v>
+        <v>0.7211393275724105</v>
       </c>
       <c r="G8">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="H8">
-        <v>3.223525225023783</v>
+        <v>3.095212705261511</v>
       </c>
       <c r="I8">
-        <v>0.24125</v>
+        <v>0.2329853862212944</v>
       </c>
       <c r="J8">
-        <v>2.4125</v>
+        <v>2.329853862212944</v>
       </c>
       <c r="K8">
-        <v>7.776754605369876</v>
+        <v>7.211393275724105</v>
       </c>
       <c r="L8">
-        <v>32.23525225023783</v>
+        <v>30.95212705261511</v>
       </c>
       <c r="M8">
-        <v>0.3530646590837924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.3273972547178744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -854,36 +872,36 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5751684780750712</v>
+        <v>0.5555487833439295</v>
       </c>
       <c r="G9">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H9">
-        <v>3.137282607682207</v>
+        <v>3.094277525834212</v>
       </c>
       <c r="I9">
-        <v>0.1833333333333333</v>
+        <v>0.1795407098121086</v>
       </c>
       <c r="J9">
-        <v>0.1833333333333333</v>
+        <v>0.1795407098121086</v>
       </c>
       <c r="K9">
-        <v>0.5751684780750712</v>
+        <v>0.5555487833439295</v>
       </c>
       <c r="L9">
-        <v>3.137282607682207</v>
+        <v>3.094277525834212</v>
       </c>
       <c r="M9">
-        <v>0.5751684780750712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.5555487833439295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1.15</v>
@@ -895,36 +913,36 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5197765193673796</v>
+        <v>0.5144121737061255</v>
       </c>
       <c r="G10">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H10">
-        <v>2.835144651094798</v>
+        <v>2.865156176805047</v>
       </c>
       <c r="I10">
-        <v>0.1833333333333333</v>
+        <v>0.1795407098121086</v>
       </c>
       <c r="J10">
-        <v>0.1833333333333333</v>
+        <v>0.1795407098121086</v>
       </c>
       <c r="K10">
-        <v>0.5197765193673796</v>
+        <v>0.5144121737061255</v>
       </c>
       <c r="L10">
-        <v>2.835144651094798</v>
+        <v>2.865156176805047</v>
       </c>
       <c r="M10">
-        <v>0.5977429972724865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.5915739997620443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>0.535</v>
@@ -936,36 +954,36 @@
         <v>210</v>
       </c>
       <c r="F11">
-        <v>0.6871744120077219</v>
+        <v>0.6881870222811244</v>
       </c>
       <c r="G11">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="H11">
-        <v>2.868206241423535</v>
+        <v>2.770097341787047</v>
       </c>
       <c r="I11">
-        <v>0.2395833333333333</v>
+        <v>0.2484342379958246</v>
       </c>
       <c r="J11">
-        <v>50.3125</v>
+        <v>52.17118997912318</v>
       </c>
       <c r="K11">
-        <v>144.3066265216216</v>
+        <v>144.5192746790361</v>
       </c>
       <c r="L11">
-        <v>602.3233106989424</v>
+        <v>581.7204417752798</v>
       </c>
       <c r="M11">
-        <v>0.3676383104241313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>0.3681800569204016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>0.535</v>
@@ -977,36 +995,36 @@
         <v>210</v>
       </c>
       <c r="F12">
-        <v>0.8207511973049286</v>
+        <v>0.7300936021086638</v>
       </c>
       <c r="G12">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="H12">
-        <v>3.141631377243746</v>
+        <v>2.973765607228316</v>
       </c>
       <c r="I12">
-        <v>0.26125</v>
+        <v>0.2455114822546973</v>
       </c>
       <c r="J12">
-        <v>54.8625</v>
+        <v>51.55741127348643</v>
       </c>
       <c r="K12">
-        <v>172.357751434035</v>
+        <v>153.3196564428194</v>
       </c>
       <c r="L12">
-        <v>659.7425892211867</v>
+        <v>624.4907775179463</v>
       </c>
       <c r="M12">
-        <v>0.4391018905581369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>0.3906000771281352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>0.45</v>
@@ -1018,36 +1036,36 @@
         <v>200</v>
       </c>
       <c r="F13">
-        <v>0.7273143396070939</v>
+        <v>0.7887261394575507</v>
       </c>
       <c r="G13">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="H13">
-        <v>2.918987316148872</v>
+        <v>3.02724215384749</v>
       </c>
       <c r="I13">
-        <v>0.2491666666666667</v>
+        <v>0.2605427974947808</v>
       </c>
       <c r="J13">
-        <v>49.83333333333334</v>
+        <v>52.10855949895616</v>
       </c>
       <c r="K13">
-        <v>145.4628679214188</v>
+        <v>157.7452278915101</v>
       </c>
       <c r="L13">
-        <v>583.7974632297744</v>
+        <v>605.4484307694979</v>
       </c>
       <c r="M13">
-        <v>0.3272914528231923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>0.3549267627558978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>0.5659999999999999</v>
@@ -1059,36 +1077,36 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.7067054213452056</v>
+        <v>0.7285998287486214</v>
       </c>
       <c r="G14">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H14">
-        <v>2.812757895901316</v>
+        <v>2.913182954679379</v>
       </c>
       <c r="I14">
-        <v>0.25125</v>
+        <v>0.2501043841336117</v>
       </c>
       <c r="J14">
-        <v>0.25125</v>
+        <v>0.2501043841336117</v>
       </c>
       <c r="K14">
-        <v>0.7067054213452056</v>
+        <v>0.7285998287486214</v>
       </c>
       <c r="L14">
-        <v>2.812757895901316</v>
+        <v>2.913182954679379</v>
       </c>
       <c r="M14">
-        <v>0.3999952684813863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>0.4123875030717197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>0.5659999999999999</v>
@@ -1100,36 +1118,36 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.8085830175314719</v>
+        <v>0.7815386922231419</v>
       </c>
       <c r="G15">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="H15">
-        <v>3.07056842100559</v>
+        <v>3.063478179827209</v>
       </c>
       <c r="I15">
-        <v>0.2633333333333333</v>
+        <v>0.2551148225469729</v>
       </c>
       <c r="J15">
-        <v>0.2633333333333333</v>
+        <v>0.2551148225469729</v>
       </c>
       <c r="K15">
-        <v>0.8085830175314719</v>
+        <v>0.7815386922231419</v>
       </c>
       <c r="L15">
-        <v>3.07056842100559</v>
+        <v>3.063478179827209</v>
       </c>
       <c r="M15">
-        <v>0.457657987922813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>0.4423508997982983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>0.454</v>
@@ -1141,36 +1159,36 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>0.7663384505705467</v>
+        <v>0.7939230259857195</v>
       </c>
       <c r="G16">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H16">
-        <v>3.154738046945647</v>
+        <v>3.239260046398293</v>
       </c>
       <c r="I16">
-        <v>0.2429166666666667</v>
+        <v>0.2450939457202505</v>
       </c>
       <c r="J16">
-        <v>2.429166666666667</v>
+        <v>2.450939457202505</v>
       </c>
       <c r="K16">
-        <v>7.663384505705467</v>
+        <v>7.939230259857196</v>
       </c>
       <c r="L16">
-        <v>31.54738046945647</v>
+        <v>32.39260046398294</v>
       </c>
       <c r="M16">
-        <v>0.3479176565590282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>0.3604410537975167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>0.454</v>
@@ -1182,36 +1200,36 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>0.8462386951401426</v>
+        <v>0.7295512391408907</v>
       </c>
       <c r="G17">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="H17">
-        <v>3.213564665089149</v>
+        <v>3.028206616538013</v>
       </c>
       <c r="I17">
-        <v>0.2633333333333333</v>
+        <v>0.2409185803757829</v>
       </c>
       <c r="J17">
-        <v>2.633333333333333</v>
+        <v>2.409185803757829</v>
       </c>
       <c r="K17">
-        <v>8.462386951401426</v>
+        <v>7.295512391408908</v>
       </c>
       <c r="L17">
-        <v>32.13564665089149</v>
+        <v>30.28206616538013</v>
       </c>
       <c r="M17">
-        <v>0.3841923675936247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>0.3312162625699644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>0.45</v>
@@ -1223,36 +1241,36 @@
         <v>200</v>
       </c>
       <c r="F18">
-        <v>0.7063576636779041</v>
+        <v>0.6800676648078581</v>
       </c>
       <c r="G18">
-        <v>596</v>
+        <v>527</v>
       </c>
       <c r="H18">
-        <v>2.844393276555319</v>
+        <v>3.090630089591689</v>
       </c>
       <c r="I18">
-        <v>0.2483333333333333</v>
+        <v>0.2200417536534447</v>
       </c>
       <c r="J18">
-        <v>49.66666666666666</v>
+        <v>44.00835073068893</v>
       </c>
       <c r="K18">
-        <v>141.2715327355808</v>
+        <v>136.0135329615716</v>
       </c>
       <c r="L18">
-        <v>568.8786553110638</v>
+        <v>618.1260179183379</v>
       </c>
       <c r="M18">
-        <v>0.3178609486550569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>0.3060304491635362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>0.45</v>
@@ -1264,36 +1282,36 @@
         <v>200</v>
       </c>
       <c r="F19">
-        <v>0.8405449378218658</v>
+        <v>0.705400029064119</v>
       </c>
       <c r="G19">
-        <v>604</v>
+        <v>539</v>
       </c>
       <c r="H19">
-        <v>3.339913660219334</v>
+        <v>3.134384173670807</v>
       </c>
       <c r="I19">
-        <v>0.2516666666666666</v>
+        <v>0.2250521920668059</v>
       </c>
       <c r="J19">
-        <v>50.33333333333333</v>
+        <v>45.01043841336117</v>
       </c>
       <c r="K19">
-        <v>168.1089875643732</v>
+        <v>141.0800058128238</v>
       </c>
       <c r="L19">
-        <v>667.9827320438669</v>
+        <v>626.8768347341614</v>
       </c>
       <c r="M19">
-        <v>0.3782452220198396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>0.3174300130788535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>0.45</v>
@@ -1305,36 +1323,36 @@
         <v>200</v>
       </c>
       <c r="F20">
-        <v>0.7819909654227095</v>
+        <v>0.7978772744546569</v>
       </c>
       <c r="G20">
-        <v>624</v>
+        <v>567</v>
       </c>
       <c r="H20">
-        <v>3.007657559318114</v>
+        <v>3.370222349768789</v>
       </c>
       <c r="I20">
-        <v>0.26</v>
+        <v>0.2367432150313152</v>
       </c>
       <c r="J20">
-        <v>52</v>
+        <v>47.34864300626305</v>
       </c>
       <c r="K20">
-        <v>156.3981930845419</v>
+        <v>159.5754548909314</v>
       </c>
       <c r="L20">
-        <v>601.5315118636228</v>
+        <v>674.0444699537578</v>
       </c>
       <c r="M20">
-        <v>0.3518959344402193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>0.3590447735045956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>0.5659999999999999</v>
@@ -1346,36 +1364,36 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.7785671605508074</v>
+        <v>0.7466503367827984</v>
       </c>
       <c r="G21">
-        <v>626</v>
+        <v>562</v>
       </c>
       <c r="H21">
-        <v>2.984922021281051</v>
+        <v>3.181899566894665</v>
       </c>
       <c r="I21">
-        <v>0.2608333333333333</v>
+        <v>0.2346555323590814</v>
       </c>
       <c r="J21">
-        <v>0.2608333333333333</v>
+        <v>0.2346555323590814</v>
       </c>
       <c r="K21">
-        <v>0.7785671605508074</v>
+        <v>0.7466503367827984</v>
       </c>
       <c r="L21">
-        <v>2.984922021281051</v>
+        <v>3.181899566894665</v>
       </c>
       <c r="M21">
-        <v>0.440669012871757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>0.4226040906190638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>0.5659999999999999</v>
@@ -1387,36 +1405,36 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.7244287715779379</v>
+        <v>0.6814765890589136</v>
       </c>
       <c r="G22">
-        <v>626</v>
+        <v>571</v>
       </c>
       <c r="H22">
-        <v>2.777362702535226</v>
+        <v>2.858382540798771</v>
       </c>
       <c r="I22">
-        <v>0.2608333333333333</v>
+        <v>0.2384133611691023</v>
       </c>
       <c r="J22">
-        <v>0.2608333333333333</v>
+        <v>0.2384133611691023</v>
       </c>
       <c r="K22">
-        <v>0.7244287715779379</v>
+        <v>0.6814765890589136</v>
       </c>
       <c r="L22">
-        <v>2.777362702535226</v>
+        <v>2.858382540798771</v>
       </c>
       <c r="M22">
-        <v>0.4100266847131128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>0.3857157494073451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>0.454</v>
@@ -1428,33 +1446,33 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>0.8282292211297172</v>
+        <v>0.6713594636702922</v>
       </c>
       <c r="G23">
-        <v>679</v>
+        <v>560</v>
       </c>
       <c r="H23">
-        <v>2.927467055539501</v>
+        <v>2.871260563375625</v>
       </c>
       <c r="I23">
-        <v>0.2829166666666666</v>
+        <v>0.2338204592901879</v>
       </c>
       <c r="J23">
-        <v>2.829166666666667</v>
+        <v>2.338204592901879</v>
       </c>
       <c r="K23">
-        <v>8.282292211297172</v>
+        <v>6.713594636702922</v>
       </c>
       <c r="L23">
-        <v>29.27467055539502</v>
+        <v>28.71260563375625</v>
       </c>
       <c r="M23">
-        <v>0.3760160663928916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>0.3047971965063127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>12.291</v>
@@ -1466,25 +1484,31 @@
         <v>1908</v>
       </c>
       <c r="J24">
-        <v>0.2489843204053109</v>
+        <v>0.2380492202921005</v>
       </c>
       <c r="K24">
-        <v>0.7683763537187673</v>
+        <v>0.7535886574342953</v>
       </c>
       <c r="L24">
-        <v>3.086043139053738</v>
+        <v>3.165684208121318</v>
       </c>
       <c r="M24">
-        <v>8.874136475260824</v>
+        <v>8.683963853475388</v>
       </c>
       <c r="N24">
-        <v>2400</v>
+        <v>2395</v>
       </c>
       <c r="O24">
         <v>0.02</v>
       </c>
       <c r="P24">
-        <v>0.01772206268511528</v>
+        <v>0.01996816376172649</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
